--- a/biology/Botanique/Serge_Dubs/Serge_Dubs.xlsx
+++ b/biology/Botanique/Serge_Dubs/Serge_Dubs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Serge Dubs, né en 1953 à Strasbourg, est un sommelier français, « Meilleur sommelier du monde 1989 ».
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1972 Serge Dubs débute à 19 ans comme commis de salle à l'« Auberge de L'Ill » d'Illhaeusern en Alsace, restaurant 3 étoiles au guide Michelin de Marc et Paul Haeberlin. C'est Jean-Marie Stoeckel (meilleur sommelier de France 1972) qui lui donne alors les clefs pour comprendre les vins et savoir en parler. En 1976, il devient maître sommelier à l’Auberge de l’Ill.
 En 2004 il devient le Président de l'UDSF (Union de la sommellerie française) et est Vice-président Continent Européen de l'ASI (Association de la Sommellerie Internationale).
-Il organise, en 2010, le Concours du Meilleur Sommelier d'Europe sur un bateau de la flotte CroisiEurope[1].
+Il organise, en 2010, le Concours du Meilleur Sommelier d'Europe sur un bateau de la flotte CroisiEurope.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Palmarès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1974 et 1976 - Meilleur sommelier d'Alsace.
 1978 et 1980 - Vice-champion de France des sommeliers.
